--- a/src/main/resources/templates/excelTemplates_merage.xlsx
+++ b/src/main/resources/templates/excelTemplates_merage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,70 @@
   </si>
   <si>
     <t>${item.userName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <rPh sb="0" eb="1">
+      <t>xu'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <rPh sb="0" eb="1">
+      <t>xing'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <rPh sb="0" eb="1">
+      <t>gon's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公地点</t>
+    <rPh sb="0" eb="1">
+      <t>ban'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <rPh sb="0" eb="1">
+      <t>nian'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地点</t>
+    <rPh sb="0" eb="1">
+      <t>chu'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.workUnit}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.workAddrs}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.age}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.brothPlace}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,30 +422,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
